--- a/OptoPi V1/Optional mechanical camera stage/Bill of materials.xlsx
+++ b/OptoPi V1/Optional mechanical camera stage/Bill of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferrerx\Documents\GitHub\OptoPi\OptoPi V1\Optional mechanical camera stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B092B603-8EF9-4A30-97AF-A44C2D4FE96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C0117-B900-49EE-863D-C4606AE2CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{62F683B3-7E2C-4D8C-B0D1-1BA8675444F6}"/>
   </bookViews>
@@ -623,7 +623,7 @@
   <dimension ref="C4:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,6 +793,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F429442DA253F4D87C51A01395E4538" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b0790da1e79963e02fa32438b30a527">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d635463e-31b1-4270-a215-562ec6f72785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47dc928d09781f1ce20aee71ea60e805" ns3:_="">
     <xsd:import namespace="d635463e-31b1-4270-a215-562ec6f72785"/>
@@ -958,22 +973,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45E2ECFA-1F01-4F3F-AE96-EACD39FC405C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d635463e-31b1-4270-a215-562ec6f72785"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796AA516-251F-41F4-A9B6-076919F96D4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F5B38D-C346-4ABD-BB36-DDD0F200470A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -989,28 +1013,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796AA516-251F-41F4-A9B6-076919F96D4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45E2ECFA-1F01-4F3F-AE96-EACD39FC405C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d635463e-31b1-4270-a215-562ec6f72785"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>